--- a/OFFERS-174/ru/ru.xlsx
+++ b/OFFERS-174/ru/ru.xlsx
@@ -903,6 +903,14 @@
 					члену семьи? Алмазная живопись уникальный и недорогой подарок, который принесет вашим близким много
 					положительных эмоций. &lt;/span&gt;&lt;/p&gt;
 			&lt;/div&gt;
+			&lt;div class="galleria owl-carousel"&gt;
+				&lt;img src="img/galler_1.png" alt&gt;
+				&lt;img src="img/galler_2.png" alt&gt;
+				&lt;img src="img/galler_3.png" alt&gt;
+				&lt;img src="img/galler_4.png" alt&gt;
+				&lt;img src="img/galler_5.png" alt&gt;
+			&lt;/div&gt;
+			&lt;br&gt;
 			&lt;a href="#offer" class="btn"&gt;&lt;span data-translate="21"&gt;Заказать&lt;/span&gt;&lt;/a&gt;
 		&lt;/section&gt;
 		&lt;section class="sect2"&gt;
@@ -934,15 +942,15 @@
 			&lt;/div&gt;
 		&lt;/section&gt;
 		&lt;section class="sect4"&gt;
-			&lt;h2 class="sect"&gt;&lt;span data-translate="38"&gt;Что входит&lt;/span&gt;&lt;br&gt;&lt;span data-translate="39"&gt;в набор?&lt;/span&gt;&lt;/h2&gt;
+			&lt;h2 class="s</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str" xml:space="preserve">
+        <v xml:space="preserve">ect"&gt;&lt;span data-translate="38"&gt;Что входит&lt;/span&gt;&lt;br&gt;&lt;span data-translate="39"&gt;в набор?&lt;/span&gt;&lt;/h2&gt;
 			&lt;img src="img/sect4.png" alt&gt;
 			&lt;div class="list"&gt;
-				&lt;p class="list__item"&gt;&lt;span data-translate="40"&gt;Камушки различных цветов, расфасован</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">ные по номерам
+				&lt;p class="list__item"&gt;&lt;span data-translate="40"&gt;Камушки различных цветов, расфасованные по номерам
 				&lt;/span&gt;&lt;/p&gt;
 				&lt;p class="list__item"&gt;&lt;span data-translate="41"&gt;Основа 40*50 со специальным клеевым покрытием, на которую нанесена подробная схема
 				&lt;/span&gt;&lt;/p&gt;
@@ -990,16 +998,16 @@
 						&lt;div class="reviews__user reviews__user--left"&gt;&lt;img src="img/user.png" alt class="img"&gt;
 							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="58"&gt;Здравствуйте! Это моя первая встреча с алмазной
 								живописью. Купила набор и ни разу не пожалела. Красивая картина получается, цвета яркие,
-								насыщенные. Смотрится объёмно, непосредственно перед глазами, а на расстоянии тем более.
+								насыщенные. Смотрится </v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">объёмно, непосредственно перед глазами, а на расстоянии тем более.
 								Советую всем подругам, и купила в подарок 2 шт. для тети и мамы. Спасибо!&lt;/span&gt;&lt;/p&gt;
 						&lt;/div&gt;
 						&lt;div class="reviews__user reviews__user--righ"&gt;
-							&lt;p class</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="59"&gt;Добрый день, спасибо! &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
+							&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="59"&gt;Добрый день, спасибо! &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
 					&lt;div class="reviews__bottom"&gt;
@@ -1049,18 +1057,18 @@
 						&lt;div class="reviews__user reviews__user--left"&gt;&lt;img src="img/user.png" alt class="img"&gt;
 							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment_2.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="66"&gt;Добрый вечер! Заинтересовал меня этот набор, увидела
 								его спонтанно и захотелось попробовать для себя нечто новое. От искусства далека, но тут
-								было интересно. В него входит всё необходимое, чтобы творить. Много вечеров свободных
+								было интересно. В него входит всё необходимое, чтобы творить. Много вечеров с</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str" xml:space="preserve">
+        <v xml:space="preserve">вободных
 								провела за этим делом, не спеша. В итоге получилась красивая картина. Буду заказывать
 								ещё.
 							&lt;/span&gt;&lt;/p&gt;
 						&lt;/div&gt;
 						&lt;div class="reviews__user reviews__user--righ"&gt;
-							&lt;p class="reviews__comment revie</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">ws__comment--righ"&gt;&lt;span data-translate="67"&gt;Добрый день, спасибо! &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
+							&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="67"&gt;Добрый день, спасибо! &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
 					&lt;div class="reviews__bottom"&gt;
